--- a/Spring23.xlsx
+++ b/Spring23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliagarbirasdiaz/Dropbox/Academic/EUI_MWF/Miriam_Golden/OPESS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miriamagolden/Dropbox/teaching/eui/OPESS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59ABAC8-8F28-B548-A190-8950D15BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EADAE87-77EF-EC48-AF3E-9B90919D9FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15820" xr2:uid="{E0AA077B-A258-E545-9D7B-2E9A377A7FBD}"/>
+    <workbookView xWindow="-26720" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{E0AA077B-A258-E545-9D7B-2E9A377A7FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Guy Grossman (MG)</t>
   </si>
   <si>
-    <t>Cyrus Sammy  (MG)</t>
-  </si>
-  <si>
     <t>Giovanna Invernizzi - Train covered or can stay </t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>https://sites.google.com/site/rubenenikolopov/home</t>
+  </si>
+  <si>
+    <t>Cyrus Sami (MG)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,78 +744,78 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -823,164 +823,164 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,97 +996,97 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1094,26 +1094,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
         <v>97</v>
-      </c>
-      <c r="H32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1121,29 +1121,29 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
